--- a/biology/Botanique/Neuradaceae/Neuradaceae.xlsx
+++ b/biology/Botanique/Neuradaceae/Neuradaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Neuradacées (Neurodaceae) regroupe des plantes dicotylédones ; elle comprend une dizaine d'espèces réparties en trois genres.
 Ce sont des plantes herbacées annuelles, velues, à croissance sympodiale et à feuilles alternes très découpées que l'on rencontre dans les milieux arides des régions tempérées à subtropicales du bassin méditerranéen jusqu'à l'Inde.
@@ -512,12 +524,14 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Neurada, dont l’origine est obscure.
-Ni Linné[1], ni Jussieu, qui proposa la famille des « Neuradées »[2], ne nous renseignent sur cette étymologie.
-Le nom est peut-être dérivé du grec νεύρων / nevron, « nerf, tendon »[3].
-Le mot νευρασ / neuras est aussi le nom en grec d’une plante connue sous le nom de « poterium », que Dioscoride décrivait comme « un grand arbuste aux branches longues, molles, en forme de sangles (flexibles) et délicates semblables à celles de la tragacanthe ( actuel genre Astragalus, Fabaceae) »[4].
+Ni Linné, ni Jussieu, qui proposa la famille des « Neuradées », ne nous renseignent sur cette étymologie.
+Le nom est peut-être dérivé du grec νεύρων / nevron, « nerf, tendon ».
+Le mot νευρασ / neuras est aussi le nom en grec d’une plante connue sous le nom de « poterium », que Dioscoride décrivait comme « un grand arbuste aux branches longues, molles, en forme de sangles (flexibles) et délicates semblables à celles de la tragacanthe ( actuel genre Astragalus, Fabaceae) ».
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Malvales.
 </t>
@@ -577,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (16 octobre 2016)[5], NCBI  (16 octobre 2016)[6] et DELTA Angio           (16 octobre 2016)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (16 octobre 2016), NCBI  (16 octobre 2016) et DELTA Angio           (16 octobre 2016) :
 Grielum (en)
 Neurada (en)
 Neuradopsis (es)</t>
@@ -610,9 +628,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (16 octobre 2016)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (16 octobre 2016) :
 genre Grielum
 Grielum humifusum
 genre Neurada
